--- a/Riesgo/DataTarea_Exogenas_Riesgo10.xlsx
+++ b/Riesgo/DataTarea_Exogenas_Riesgo10.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\github\CUECOPolMon\Riesgo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA814A6F-AA45-4861-8E9E-D4116444B2E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A13A28E-5C10-45CA-A0B7-DFFDF76C0D34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3960" yWindow="2310" windowWidth="21540" windowHeight="11400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3825" yWindow="3135" windowWidth="21540" windowHeight="11400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Uvar" sheetId="1" r:id="rId1"/>
@@ -67,9 +67,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
-    <numFmt numFmtId="165" formatCode="#,##0.000"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -169,7 +168,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="17" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -215,7 +214,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -524,7 +522,7 @@
   <dimension ref="A1:Q10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+      <selection activeCell="G3" sqref="G3:H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -569,16 +567,17 @@
         <v>45747</v>
       </c>
       <c r="B3" s="4">
-        <v>-0.50513327035578404</v>
+        <v>-0.75513327035578404</v>
       </c>
       <c r="C3" s="4">
         <v>-5.5</v>
       </c>
       <c r="D3" s="5">
-        <v>-2.324276733848583</v>
+        <v>-2.574276733848583</v>
       </c>
       <c r="E3" s="6"/>
       <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
       <c r="I3" s="16"/>
       <c r="K3" s="16"/>
       <c r="L3" s="16"/>
@@ -592,16 +591,17 @@
         <v>45838</v>
       </c>
       <c r="B4" s="4">
-        <v>-0.42154812714435619</v>
+        <v>-0.67154812714435619</v>
       </c>
       <c r="C4" s="4">
         <v>-5.5</v>
       </c>
       <c r="D4" s="5">
-        <v>-1.9001121761291659</v>
+        <v>-2.1501121761291659</v>
       </c>
       <c r="E4" s="6"/>
-      <c r="G4" s="17"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="16"/>
       <c r="I4" s="16"/>
       <c r="K4" s="16"/>
       <c r="L4" s="16"/>
@@ -615,16 +615,17 @@
         <v>45930</v>
       </c>
       <c r="B5" s="4">
-        <v>-0.38826461122156442</v>
+        <v>-0.63826461122156442</v>
       </c>
       <c r="C5" s="4">
         <v>-5.5</v>
       </c>
       <c r="D5" s="5">
-        <v>-1.5223598132153691</v>
+        <v>-1.7723598132153691</v>
       </c>
       <c r="E5" s="6"/>
-      <c r="G5" s="17"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
       <c r="I5" s="16"/>
       <c r="K5" s="16"/>
       <c r="L5" s="16"/>
@@ -638,16 +639,17 @@
         <v>46022</v>
       </c>
       <c r="B6" s="4">
-        <v>-0.3535964354729636</v>
+        <v>-0.6035964354729636</v>
       </c>
       <c r="C6" s="4">
         <v>-4</v>
       </c>
       <c r="D6" s="5">
-        <v>-1.2139905772327138</v>
+        <v>-1.4639905772327138</v>
       </c>
       <c r="E6" s="6"/>
-      <c r="G6" s="17"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="16"/>
       <c r="I6" s="16"/>
       <c r="K6" s="16"/>
       <c r="L6" s="16"/>
@@ -661,16 +663,17 @@
         <v>46112</v>
       </c>
       <c r="B7" s="4">
-        <v>-0.34081097016459322</v>
+        <v>-0.59081097016459316</v>
       </c>
       <c r="C7" s="4">
         <v>-4</v>
       </c>
       <c r="D7" s="5">
-        <v>-0.97511968629980239</v>
+        <v>-1.2251196862998024</v>
       </c>
       <c r="E7" s="6"/>
-      <c r="G7" s="17"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="16"/>
       <c r="I7" s="16"/>
       <c r="K7" s="16"/>
       <c r="L7" s="16"/>
@@ -684,16 +687,17 @@
         <v>46203</v>
       </c>
       <c r="B8" s="4">
-        <v>-0.33002114131167809</v>
+        <v>-0.58002114131167803</v>
       </c>
       <c r="C8" s="4">
         <v>-2.5</v>
       </c>
       <c r="D8" s="5">
-        <v>-0.79666930800362967</v>
+        <v>-1.0466693080036298</v>
       </c>
       <c r="E8" s="6"/>
-      <c r="G8" s="17"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="16"/>
       <c r="I8" s="16"/>
       <c r="K8" s="16"/>
       <c r="L8" s="16"/>
@@ -707,16 +711,17 @@
         <v>46295</v>
       </c>
       <c r="B9" s="4">
-        <v>-0.3380297275828979</v>
+        <v>-0.58802972758289784</v>
       </c>
       <c r="C9" s="4">
         <v>-2.5</v>
       </c>
       <c r="D9" s="5">
-        <v>-0.66703685484402608</v>
+        <v>-0.91703685484402608</v>
       </c>
       <c r="E9" s="6"/>
-      <c r="G9" s="17"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="16"/>
       <c r="I9" s="16"/>
       <c r="K9" s="16"/>
       <c r="L9" s="16"/>
@@ -730,16 +735,17 @@
         <v>46387</v>
       </c>
       <c r="B10" s="4">
-        <v>-0.35570801121811174</v>
+        <v>-0.60570801121811169</v>
       </c>
       <c r="C10" s="4">
         <v>-2.5</v>
       </c>
       <c r="D10" s="5">
-        <v>-0.57591053958353444</v>
+        <v>-0.82591053958353444</v>
       </c>
       <c r="E10" s="6"/>
-      <c r="G10" s="17"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="16"/>
       <c r="I10" s="16"/>
       <c r="K10" s="16"/>
       <c r="L10" s="16"/>
